--- a/biology/Zoologie/Amorphoscelis_pallida/Amorphoscelis_pallida.xlsx
+++ b/biology/Zoologie/Amorphoscelis_pallida/Amorphoscelis_pallida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorphoscelis pallida est une espèce de mantes religieuses de la famille des Amorphoscelidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amorphoscelis pallida se rencontre au Cameroun, au Kenya et au Nigeria[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amorphoscelis pallida se rencontre au Cameroun, au Kenya et au Nigeria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype d’Amorphoscelis pallida, un mâle, mesure 19 mm avec des élytres de 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype d’Amorphoscelis pallida, un mâle, mesure 19 mm avec des élytres de 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amorphoscelis pallida Giglio-Tos, 1914[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amorphoscelis pallida Giglio-Tos, 1914,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) Ermanno Giglio-Tos, « Mantidi Esotici VI », Bollettino della Società Entomologica Italiana, Florence, M. Ricci, vol. 45,‎ 1914, p. 3-60 (ISSN 0373-3491 et 2281-9282, OCLC 1765746, lire en ligne)</t>
         </is>
